--- a/202203.xlsx
+++ b/202203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitWorkspace\reading_papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0798CC32-0E18-4025-B4BC-D7AFA40E915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F31ED-CF44-438C-A0DF-C6A5549B7544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,96 @@
   </si>
   <si>
     <t>Meuel H, Kluger F, Ostermann J. Region of Interest (ROI) Coding for Aerial Surveillance Video using AVC &amp; HEVC[J]. arXiv preprint arXiv:1801.06442, 2018.</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Adaptive Encoding Application Sharing System Based on Remote Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jing W, Xuetao G, Yang Z. An adaptive encoding application sharing system based on remote display[C]//2013 Third International Conference on Intelligent System Design and Engineering Applications. IEEE, 2013: 266-269.</t>
+  </si>
+  <si>
+    <t>server-based computing;
+remote display;
+desktop sharing system;
+application sharing system;
+adaptive encoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Human-and-Network Aware Encoding Adaptation Scheme for Remote Desktop Access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calyam P, Kalash A, Krishnamurthy A, et al. A human-and-network aware encoding adaptation scheme for remote desktop access[C]//2009 IEEE International Workshop on Multimedia Signal Processing. IEEE, 2009: 1-6.</t>
+  </si>
+  <si>
+    <t>未看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miao D, Fu J, Lu Y, et al. Layered screen video coding leveraging hardware video codec[C]//2013 IEEE International Conference on Multimedia and Expo (ICME). IEEE, 2013: 1-6.</t>
+  </si>
+  <si>
+    <t>Miao D, Fu J, Lu Y, et al. High frame rate screen video coding for screen sharing applications[C]//2014 IEEE International Symposium on Circuits and Systems (ISCAS). IEEE, 2014: 2157-2160.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High frame rate screen video coding for screen sharing applications</t>
+  </si>
+  <si>
+    <t>Layered screen video coding leveraging hardware video codec</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miao D, Fu J, Lu Y, et al. A high-fidelity and low-interaction-delay screen sharing system[J]. ACM Transactions on Multimedia Computing, Communications, and Applications (TOMM), 2016, 12(3): 1-23.</t>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A high-fidelity and low-interaction-delay screen sharing system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,10 +517,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="100.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -500,8 +590,105 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/202203.xlsx
+++ b/202203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitWorkspace\reading_papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F31ED-CF44-438C-A0DF-C6A5549B7544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38468EC6-6D63-404E-B844-77741580B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,12 +190,167 @@
     <t>A high-fidelity and low-interaction-delay screen sharing system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没下载到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ishida K, Asao D, Endo A, et al. High-Resolution Streaming Functionality in SAGE2 Screen Sharing[C]//Future of Information and Communication Conference. Springer, Cham, 2019: 384-399.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-Resolution Streaming Functionality in SAGE2 Screen Sharing</t>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang C, Cheng Y, Huang G, et al. On the Performance Comparisons of Native and Clientless Real-Time Screen-Sharing Technologies[J]. ACM Transactions on Multimedia Computing, Communications, and Applications (TOMM), 2021, 17(2): 1-26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the Performance Comparisons of Native and Clientless Real-Time Screen-Sharing Technologies</t>
+  </si>
+  <si>
+    <t>2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li P, Wei J. New Multimedia Teaching Method by Multi-screen Interactive[C]//MATEC Web of Conferences. EDP Sciences, 2018, 173: 03078.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Multimedia Teaching Method by Multi-screen Interactive</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang S , Li B , Song Y , et al. A Hardware-Accelerated System for High Resolution Real-Time Screen Sharing[J]. Circuits and Systems for Video Technology, IEEE Transactions on, 2018.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Hardware-Accelerated System for High Resolution Real-Time Screen Sharing</t>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于消息机制的实时屏幕共享技术</t>
+  </si>
+  <si>
+    <t>2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜俊勇 王国胤. 基于消息机制的实时屏幕共享技术[J]. 计算机科学, 2005, 32(8): 223-225.</t>
+  </si>
+  <si>
+    <t>Nakajima K . Real-time web sharing system:, US20060015763[P]. 2006.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real-time web sharing system</t>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid model-and-object-based real-time conversational video coding</t>
+  </si>
+  <si>
+    <t>2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Y, Tao X, Lu J. Hybrid model-and-object-based real-time conversational video coding[J]. Signal Processing: Image Communication, 2015, 35: 9-19.</t>
+  </si>
+  <si>
+    <t>Liu Y, Liu S, Wang Y, et al. Video coding and processing: a survey[J]. Neurocomputing, 2020, 408: 331-344.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video coding and processing: a survey</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canterle D R, da Silveira T L T, Bayer F M, et al. A multiparametric class of low-complexity transforms for image and video coding[J]. Signal Processing, 2020, 176: 107685.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A multiparametric class of low-complexity transforms for image and video coding</t>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khiem N Q M, Ravindra G, Ooi W T. Adaptive encoding of zoomable video streams based on user access pattern[J]. Signal Processing: Image Communication, 2012, 27(4): 360-377.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive encoding of zoomable video streams based on user access pattern</t>
+  </si>
+  <si>
+    <t>Kimball J, Wypych T, Kuester F. Low bandwidth desktop and video streaming for collaborative tiled display environments[J]. Future Generation Computer Systems, 2016, 54: 336-343.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low bandwidth desktop and video streaming for collaborative tiled display environments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +365,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,9 +407,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,10 +702,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="100.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -528,52 +713,52 @@
     <col min="1" max="16384" width="31.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -689,6 +874,196 @@
       </c>
       <c r="H8" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/202203.xlsx
+++ b/202203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitWorkspace\reading_papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38468EC6-6D63-404E-B844-77741580B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6607A31-2F83-4195-8848-DA32E72BA8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还没下载到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ishida K, Asao D, Endo A, et al. High-Resolution Streaming Functionality in SAGE2 Screen Sharing[C]//Future of Information and Communication Conference. Springer, Cham, 2019: 384-399.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,17 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Li P, Wei J. New Multimedia Teaching Method by Multi-screen Interactive[C]//MATEC Web of Conferences. EDP Sciences, 2018, 173: 03078.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Multimedia Teaching Method by Multi-screen Interactive</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +329,93 @@
   </si>
   <si>
     <t>Low bandwidth desktop and video streaming for collaborative tiled display environments</t>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu X, Liu S. Overview of screen content coding in recently developed video coding standards[J]. IEEE Transactions on Circuits and Systems for Video Technology, 2021.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overview of screen content coding in recently developed video coding standards</t>
+  </si>
+  <si>
+    <t>Chen Y, Murherjee D, Han J, et al. An overview of core coding tools in the AV1 video codec[C]//2018 Picture Coding Symposium (PCS). IEEE, 2018: 41-45.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An overview of core coding tools in the AV1 video codec</t>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋人杰, 张元东. 基于感兴趣区域的高性能视频编码帧内预测优化算法[J]. 电 子 与 信 息 学 报, 2020, 42: 11.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于感兴趣区域的高性能视频编码帧内预测优化算法</t>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘政林, 朱盛瑜, 翟剑坤, 等. 视频前景运动跟踪和感兴趣区域捕获[J]. 华中科技大学学报: 自然科学版, 2020, 48(6): 1-5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频前景运动跟踪和感兴趣区域捕获</t>
+  </si>
+  <si>
+    <t>看得累死了，有必要重看吗，无语了，没总结出东西来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan Z, Shen H, Lu Y, et al. A low-complexity screen compression scheme for interactive screen sharing[J]. IEEE transactions on circuits and systems for video technology, 2013, 23(6): 949-960.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A low-complexity screen compression scheme for interactive screen sharing</t>
+  </si>
+  <si>
+    <t>大致看了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和共享屏幕没关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在于优化视频压缩编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师姐发的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论了图形和文字块的编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -702,10 +774,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="100.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -713,7 +785,7 @@
     <col min="1" max="16384" width="31.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -727,19 +799,22 @@
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -752,17 +827,17 @@
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -778,11 +853,11 @@
       <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -798,14 +873,14 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -818,14 +893,14 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -838,11 +913,11 @@
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -855,11 +930,11 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -872,11 +947,11 @@
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -884,36 +959,33 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -924,66 +996,69 @@
         <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>44</v>
@@ -992,78 +1067,167 @@
         <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
